--- a/biology/Médecine/Joseph-Barthélemy-François_Carrère/Joseph-Barthélemy-François_Carrère.xlsx
+++ b/biology/Médecine/Joseph-Barthélemy-François_Carrère/Joseph-Barthélemy-François_Carrère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph-Barth%C3%A9lemy-Fran%C3%A7ois_Carr%C3%A8re</t>
+          <t>Joseph-Barthélemy-François_Carrère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph-Barthélemy-François Carrère, né le 24 août 1740 à Perpignan (Roussillon) et mort le 20 décembre 1803 à Barcelone (Espagne), est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph-Barth%C3%A9lemy-Fran%C3%A7ois_Carr%C3%A8re</t>
+          <t>Joseph-Barthélemy-François_Carrère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Thomas Carrère, un médecin renommé, Joseph Carrère accéda lui-même au grade de docteur en médecine à Montpellier en 1759. Il occupa à partir de 1762 la chaire d'anatomie et de chirurgie de la Faculté de médecine de Perpignan. Nommé le 8 octobre 1770 directeur du cabinet d'histoire naturelle qu'il organisa à Perpignan, il peut en être considéré comme le premier conservateur. En 1772, Louis XV inféoda en sa faveur les bains des Escaldes en Cerdagne, inféodation à laquelle s'opposèrent fermement les habitants du village. Le roi le nomma en 1773 inspecteur général des eaux minérales de la province de Roussillon et du comté de Foix.
 Joseph Carrère se heurta par ailleurs à des difficultés auprès de ses collègues de l'Université de Perpignan : en mars 1773, des plaintes furent portées et le chancelier de Maupeou, qui en fut informé, pensa que seule sa destitution pouvait ramener le bon ordre dans l'Université de Perpignan. Carrère fut relevé de ses fonctions par un arrêté du conseil du roi du 3 juillet 1773. En 1774, il quitta Perpignan et s'installa à Paris où il devint censeur royal en 1775, médecin du garde meuble et médecin ordinaire de Louis XVI.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph-Barth%C3%A9lemy-Fran%C3%A7ois_Carr%C3%A8re</t>
+          <t>Joseph-Barthélemy-François_Carrère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre un certain nombre d'ouvrages de médecine, il a écrit :
 Bibliothèque littéraire historique et critique de la médecine ancienne et moderne, tomes I et II. Paris, 1776 (ce dictionnaire s'arrête à Coivart).
